--- a/Finale_Abgabe/Sprint_Report.xlsx
+++ b/Finale_Abgabe/Sprint_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\IdeaProjects\TM22_SoftwareEngineering_Gruppe2\Finale_Abgabe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F462A9-C334-42EA-A127-D865820806FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F88C17-E821-462B-A986-9E7DBE300ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{267CC342-08BB-491D-946F-58BFBB1312F9}"/>
+    <workbookView xWindow="6495" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{267CC342-08BB-491D-946F-58BFBB1312F9}"/>
   </bookViews>
   <sheets>
     <sheet name="All Sprints" sheetId="5" r:id="rId1"/>
@@ -589,25 +589,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -630,40 +618,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -684,10 +648,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,9 +719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>710400</xdr:colOff>
+      <xdr:colOff>715162</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>44637</xdr:rowOff>
+      <xdr:rowOff>49399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -776,7 +776,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>10311</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>70500</xdr:rowOff>
+      <xdr:rowOff>75262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -828,8 +828,8 @@
       <xdr:rowOff>57112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>615149</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5620536</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>59330</xdr:rowOff>
     </xdr:to>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641F24DA-7E6B-429E-893D-76D9671F0016}">
   <dimension ref="B28:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q8" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1189,7 +1189,7 @@
     <col min="9" max="9" width="14.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79.06640625" customWidth="1"/>
     <col min="11" max="11" width="9.796875" customWidth="1"/>
-    <col min="15" max="15" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.46484375" customWidth="1"/>
     <col min="16" max="16" width="80" customWidth="1"/>
     <col min="17" max="17" width="10.796875" customWidth="1"/>
     <col min="18" max="18" width="10.3984375" customWidth="1"/>
@@ -1198,1757 +1198,1754 @@
   <sheetData>
     <row r="28" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="29" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="H29" s="30" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="H29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32"/>
-      <c r="N29" s="30" t="s">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="N29" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="35"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14" t="s">
+      <c r="H31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14" t="s">
+      <c r="N31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="Q31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="15" t="s">
+      <c r="R31" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="27">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16" t="s">
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="27">
+      <c r="K32" s="25">
+        <v>0</v>
+      </c>
+      <c r="L32" s="32">
         <v>106</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q32" s="10">
-        <v>0</v>
-      </c>
-      <c r="R32" s="17">
+      <c r="Q32" s="26">
+        <v>0</v>
+      </c>
+      <c r="R32" s="27">
         <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B33" s="16"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="27"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="32"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="27"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="9" t="s">
+      <c r="K33" s="25"/>
+      <c r="L33" s="32"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="17"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B34" s="16"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="27"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="32"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="27"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="9" t="s">
+      <c r="K34" s="25"/>
+      <c r="L34" s="32"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="17"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="27"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B35" s="16"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="27"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="32"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="27"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="9" t="s">
+      <c r="K35" s="25"/>
+      <c r="L35" s="32"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="17"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B36" s="16"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="27"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="32"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="27"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="9" t="s">
+      <c r="K36" s="25"/>
+      <c r="L36" s="32"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="17"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="27"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B37" s="16"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="27"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="32"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="27"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="9" t="s">
+      <c r="K37" s="25"/>
+      <c r="L37" s="32"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="17"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B38" s="16"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="27"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9" t="s">
+      <c r="E38" s="25"/>
+      <c r="F38" s="32"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="27"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="9" t="s">
+      <c r="K38" s="25"/>
+      <c r="L38" s="32"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="17"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="27"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B39" s="16"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="27"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="32"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="27"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="9" t="s">
+      <c r="K39" s="25"/>
+      <c r="L39" s="32"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="17"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B40" s="16"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="27"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="32"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="27"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="9" t="s">
+      <c r="K40" s="25"/>
+      <c r="L40" s="32"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="17"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="27"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B41" s="16"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="27"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="32"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="27"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="9" t="s">
+      <c r="K41" s="25"/>
+      <c r="L41" s="32"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="17"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B42" s="16"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="27"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="9" t="s">
+      <c r="E42" s="25"/>
+      <c r="F42" s="32"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="27"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="9" t="s">
+      <c r="K42" s="25"/>
+      <c r="L42" s="32"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="17"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="27"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B43" s="16"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="27"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9" t="s">
+      <c r="E43" s="25"/>
+      <c r="F43" s="32"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="27"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="9" t="s">
+      <c r="K43" s="25"/>
+      <c r="L43" s="32"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="17"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B44" s="16"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="27"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="9" t="s">
+      <c r="E44" s="25"/>
+      <c r="F44" s="32"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="27"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="9" t="s">
+      <c r="K44" s="25"/>
+      <c r="L44" s="32"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="17"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="27"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B45" s="16"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="27"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="9" t="s">
+      <c r="E45" s="25"/>
+      <c r="F45" s="32"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="27"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="9" t="s">
+      <c r="K45" s="25"/>
+      <c r="L45" s="32"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="17"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="29">
-        <v>0</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="9" t="s">
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="27"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="9" t="s">
+      <c r="K46" s="25"/>
+      <c r="L46" s="32"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="17"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="27"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="29">
-        <v>0</v>
-      </c>
-      <c r="H47" s="16" t="s">
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
-      <c r="L47" s="27">
+      <c r="K47" s="25">
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
         <v>106</v>
       </c>
-      <c r="N47" s="16"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="9" t="s">
+      <c r="N47" s="24"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="17"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="29">
-        <v>0</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="9" t="s">
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="27"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="9" t="s">
+      <c r="K48" s="25"/>
+      <c r="L48" s="32"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="17"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="27"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="C49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="29">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="9" t="s">
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="27"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="9" t="s">
+      <c r="K49" s="25"/>
+      <c r="L49" s="32"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="17"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="29">
-        <v>0</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="9" t="s">
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="27"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="9" t="s">
+      <c r="K50" s="25"/>
+      <c r="L50" s="32"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="17"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="27"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="C51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="29">
-        <v>0</v>
-      </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="9" t="s">
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="27"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="9" t="s">
+      <c r="K51" s="25"/>
+      <c r="L51" s="32"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="17"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="29">
-        <v>0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="9" t="s">
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="27"/>
-      <c r="N52" s="18" t="s">
+      <c r="K52" s="25"/>
+      <c r="L52" s="32"/>
+      <c r="N52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P52" s="9" t="s">
+      <c r="P52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q52" s="12">
-        <v>0</v>
-      </c>
-      <c r="R52" s="19">
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="29">
-        <v>0</v>
-      </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="9" t="s">
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="27"/>
-      <c r="N53" s="18" t="s">
+      <c r="K53" s="25"/>
+      <c r="L53" s="32"/>
+      <c r="N53" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P53" s="9" t="s">
+      <c r="P53" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q53" s="12">
-        <v>0</v>
-      </c>
-      <c r="R53" s="19">
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="29">
-        <v>0</v>
-      </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="9" t="s">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+      <c r="H54" s="24"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="27"/>
-      <c r="N54" s="18" t="s">
+      <c r="K54" s="25"/>
+      <c r="L54" s="32"/>
+      <c r="N54" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54" s="9" t="s">
+      <c r="O54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q54" s="12">
-        <v>0</v>
-      </c>
-      <c r="R54" s="19">
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="29">
-        <v>0</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="9" t="s">
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="27"/>
-      <c r="N55" s="18" t="s">
+      <c r="K55" s="25"/>
+      <c r="L55" s="32"/>
+      <c r="N55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P55" s="9" t="s">
+      <c r="P55" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q55" s="12">
-        <v>0</v>
-      </c>
-      <c r="R55" s="19">
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="29">
-        <v>0</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="9" t="s">
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16">
+        <v>0</v>
+      </c>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="27"/>
-      <c r="N56" s="18" t="s">
+      <c r="K56" s="25"/>
+      <c r="L56" s="32"/>
+      <c r="N56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="9" t="s">
+      <c r="P56" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q56" s="12">
-        <v>0</v>
-      </c>
-      <c r="R56" s="19">
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-      <c r="F57" s="29">
-        <v>0</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="9" t="s">
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="27"/>
-      <c r="N57" s="18" t="s">
+      <c r="K57" s="25"/>
+      <c r="L57" s="32"/>
+      <c r="N57" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P57" s="9" t="s">
+      <c r="O57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" s="12">
-        <v>0</v>
-      </c>
-      <c r="R57" s="19">
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-      <c r="F58" s="29">
-        <v>0</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="9" t="s">
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="27"/>
-      <c r="N58" s="18" t="s">
+      <c r="K58" s="25"/>
+      <c r="L58" s="32"/>
+      <c r="N58" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O58" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P58" s="9" t="s">
+      <c r="O58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q58" s="12">
-        <v>0</v>
-      </c>
-      <c r="R58" s="19">
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="29">
-        <v>0</v>
-      </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="9" t="s">
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16">
+        <v>0</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="27"/>
-      <c r="N59" s="18" t="s">
+      <c r="K59" s="25"/>
+      <c r="L59" s="32"/>
+      <c r="N59" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P59" s="9" t="s">
+      <c r="O59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="12" t="s">
+      <c r="Q59" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R59" s="19">
+      <c r="R59" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="C60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-      <c r="F60" s="29">
-        <v>0</v>
-      </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="9" t="s">
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="27"/>
-      <c r="N60" s="18" t="s">
+      <c r="K60" s="25"/>
+      <c r="L60" s="32"/>
+      <c r="N60" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O60" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P60" s="9" t="s">
+      <c r="O60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q60" s="12" t="s">
+      <c r="Q60" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R60" s="19">
+      <c r="R60" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="61" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="C61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-      <c r="F61" s="29">
-        <v>0</v>
-      </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23" t="s">
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="28"/>
-      <c r="N61" s="18" t="s">
+      <c r="K61" s="29"/>
+      <c r="L61" s="33"/>
+      <c r="N61" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q61" s="12" t="s">
+      <c r="Q61" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R61" s="19" t="s">
+      <c r="R61" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="C62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-      <c r="F62" s="29">
-        <v>0</v>
-      </c>
-      <c r="N62" s="18" t="s">
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0</v>
+      </c>
+      <c r="N62" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q62" s="12">
+      <c r="Q62" s="8">
         <v>5</v>
       </c>
-      <c r="R62" s="19">
+      <c r="R62" s="13">
         <v>141</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="C63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="11">
-        <v>0</v>
-      </c>
-      <c r="F63" s="29">
-        <v>0</v>
-      </c>
-      <c r="N63" s="18" t="s">
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0</v>
+      </c>
+      <c r="N63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="P63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" s="12">
+      <c r="Q63" s="8">
         <v>5</v>
       </c>
-      <c r="R63" s="19" t="s">
+      <c r="R63" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="9" t="s">
+      <c r="C64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-      <c r="F64" s="29">
-        <v>0</v>
-      </c>
-      <c r="N64" s="18" t="s">
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16">
+        <v>0</v>
+      </c>
+      <c r="N64" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O64" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P64" s="9" t="s">
+      <c r="O64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="12" t="s">
+      <c r="Q64" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R64" s="20">
+      <c r="R64" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="C65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="11">
-        <v>0</v>
-      </c>
-      <c r="F65" s="29">
-        <v>0</v>
-      </c>
-      <c r="N65" s="18" t="s">
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16">
+        <v>0</v>
+      </c>
+      <c r="N65" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P65" s="9" t="s">
+      <c r="O65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="12" t="s">
+      <c r="Q65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R65" s="20">
+      <c r="R65" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="11">
-        <v>0</v>
-      </c>
-      <c r="F66" s="29">
-        <v>0</v>
-      </c>
-      <c r="N66" s="18" t="s">
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16">
+        <v>0</v>
+      </c>
+      <c r="N66" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O66" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P66" s="9" t="s">
+      <c r="O66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q66" s="12" t="s">
+      <c r="Q66" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R66" s="20">
+      <c r="R66" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="11">
-        <v>0</v>
-      </c>
-      <c r="F67" s="29">
-        <v>0</v>
-      </c>
-      <c r="N67" s="18" t="s">
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16">
+        <v>0</v>
+      </c>
+      <c r="N67" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O67" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P67" s="9" t="s">
+      <c r="O67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q67" s="12" t="s">
+      <c r="Q67" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="R67" s="20">
+      <c r="R67" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="9" t="s">
+      <c r="C68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="11">
-        <v>0</v>
-      </c>
-      <c r="F68" s="29">
-        <v>0</v>
-      </c>
-      <c r="N68" s="18" t="s">
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="16">
+        <v>0</v>
+      </c>
+      <c r="N68" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O68" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P68" s="9" t="s">
+      <c r="O68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q68" s="12" t="s">
+      <c r="Q68" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R68" s="20">
+      <c r="R68" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="C69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="11">
-        <v>0</v>
-      </c>
-      <c r="F69" s="29">
-        <v>0</v>
-      </c>
-      <c r="N69" s="18" t="s">
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16">
+        <v>0</v>
+      </c>
+      <c r="N69" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O69" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P69" s="9" t="s">
+      <c r="O69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q69" s="12" t="s">
+      <c r="Q69" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R69" s="20">
+      <c r="R69" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="27">
-        <v>0</v>
-      </c>
-      <c r="N70" s="18" t="s">
+      <c r="E70" s="25">
+        <v>0</v>
+      </c>
+      <c r="F70" s="32">
+        <v>0</v>
+      </c>
+      <c r="N70" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O70" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P70" s="9" t="s">
+      <c r="O70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q70" s="12" t="s">
+      <c r="Q70" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="R70" s="20">
+      <c r="R70" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B71" s="16"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9" t="s">
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="27"/>
-      <c r="N71" s="18" t="s">
+      <c r="E71" s="25"/>
+      <c r="F71" s="32"/>
+      <c r="N71" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O71" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P71" s="9" t="s">
+      <c r="O71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q71" s="12" t="s">
+      <c r="Q71" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R71" s="20">
+      <c r="R71" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B72" s="16"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="27"/>
-      <c r="N72" s="18" t="s">
+      <c r="E72" s="25"/>
+      <c r="F72" s="32"/>
+      <c r="N72" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O72" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P72" s="9" t="s">
+      <c r="O72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="12" t="s">
+      <c r="Q72" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R72" s="20">
+      <c r="R72" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B73" s="16"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9" t="s">
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="27"/>
-      <c r="N73" s="18" t="s">
+      <c r="E73" s="25"/>
+      <c r="F73" s="32"/>
+      <c r="N73" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O73" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P73" s="9" t="s">
+      <c r="O73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q73" s="12" t="s">
+      <c r="Q73" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="R73" s="20">
+      <c r="R73" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B74" s="16"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9" t="s">
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="27"/>
-      <c r="N74" s="18" t="s">
+      <c r="E74" s="25"/>
+      <c r="F74" s="32"/>
+      <c r="N74" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O74" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P74" s="9" t="s">
+      <c r="O74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q74" s="12" t="s">
+      <c r="Q74" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R74" s="20">
+      <c r="R74" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B75" s="16"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9" t="s">
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="27"/>
-      <c r="N75" s="18" t="s">
+      <c r="E75" s="25"/>
+      <c r="F75" s="32"/>
+      <c r="N75" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O75" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P75" s="9" t="s">
+      <c r="O75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q75" s="12" t="s">
+      <c r="Q75" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="20">
+      <c r="R75" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B76" s="16"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="27"/>
-      <c r="N76" s="18" t="s">
+      <c r="E76" s="25"/>
+      <c r="F76" s="32"/>
+      <c r="N76" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O76" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P76" s="9" t="s">
+      <c r="O76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q76" s="12" t="s">
+      <c r="Q76" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="R76" s="20">
+      <c r="R76" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B77" s="16"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="27"/>
-      <c r="N77" s="16" t="s">
+      <c r="E77" s="25"/>
+      <c r="F77" s="32"/>
+      <c r="N77" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O77" s="8" t="s">
+      <c r="O77" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="P77" s="9" t="s">
+      <c r="P77" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q77" s="10">
+      <c r="Q77" s="26">
         <v>76</v>
       </c>
-      <c r="R77" s="17">
+      <c r="R77" s="27">
         <v>144</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B78" s="16"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="9" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="27"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="9" t="s">
+      <c r="E78" s="25"/>
+      <c r="F78" s="32"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="17"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="27"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B79" s="16"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="9" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="27"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="9" t="s">
+      <c r="E79" s="25"/>
+      <c r="F79" s="32"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="17"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="27"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B80" s="16"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="9" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="27"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="9" t="s">
+      <c r="E80" s="25"/>
+      <c r="F80" s="32"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="17"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="27"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B81" s="16"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="9" t="s">
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="27"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="9" t="s">
+      <c r="E81" s="25"/>
+      <c r="F81" s="32"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="17"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="27"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B82" s="16"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="9" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="27"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="9" t="s">
+      <c r="E82" s="25"/>
+      <c r="F82" s="32"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="17"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="27"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B83" s="16"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="27"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="9" t="s">
+      <c r="E83" s="25"/>
+      <c r="F83" s="32"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="17"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="27"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B84" s="16"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="9" t="s">
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="27"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="9" t="s">
+      <c r="E84" s="25"/>
+      <c r="F84" s="32"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="17"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="27"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B85" s="16"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="9" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="27"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="9" t="s">
+      <c r="E85" s="25"/>
+      <c r="F85" s="32"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="17"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="27"/>
     </row>
     <row r="86" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="21"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23" t="s">
+      <c r="B86" s="28"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="28"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="9" t="s">
+      <c r="E86" s="29"/>
+      <c r="F86" s="33"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="17"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="27"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N87" s="16"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="9" t="s">
+      <c r="N87" s="24"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="17"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="27"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N88" s="16"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="9" t="s">
+      <c r="N88" s="24"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="17"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="27"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N89" s="16"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="9" t="s">
+      <c r="N89" s="24"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="17"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="27"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N90" s="16"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="9" t="s">
+      <c r="N90" s="24"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="17"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="27"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N91" s="16"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="9" t="s">
+      <c r="N91" s="24"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="17"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="27"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N92" s="16"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="9" t="s">
+      <c r="N92" s="24"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="17"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="27"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N93" s="16"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="9" t="s">
+      <c r="N93" s="24"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="17"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="27"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N94" s="16"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="9" t="s">
+      <c r="N94" s="24"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q94" s="10"/>
-      <c r="R94" s="17"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="27"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N95" s="16"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="9" t="s">
+      <c r="N95" s="24"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="17"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="27"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N96" s="16"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="9" t="s">
+      <c r="N96" s="24"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q96" s="10"/>
-      <c r="R96" s="17"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="27"/>
     </row>
     <row r="97" spans="14:18" x14ac:dyDescent="0.45">
-      <c r="N97" s="16"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="9" t="s">
+      <c r="N97" s="24"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q97" s="10"/>
-      <c r="R97" s="17"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="27"/>
     </row>
     <row r="98" spans="14:18" x14ac:dyDescent="0.45">
-      <c r="N98" s="16"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="9" t="s">
+      <c r="N98" s="24"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q98" s="10"/>
-      <c r="R98" s="17"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="27"/>
     </row>
     <row r="99" spans="14:18" x14ac:dyDescent="0.45">
-      <c r="N99" s="16"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="9" t="s">
+      <c r="N99" s="24"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q99" s="10"/>
-      <c r="R99" s="17"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="27"/>
     </row>
     <row r="100" spans="14:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N100" s="21"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="23" t="s">
+      <c r="N100" s="28"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="25"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="H29:L30"/>
-    <mergeCell ref="N29:R30"/>
-    <mergeCell ref="N32:N51"/>
-    <mergeCell ref="O32:O51"/>
-    <mergeCell ref="Q32:Q51"/>
-    <mergeCell ref="R32:R51"/>
+    <mergeCell ref="B70:B86"/>
+    <mergeCell ref="C70:C86"/>
+    <mergeCell ref="E70:E86"/>
+    <mergeCell ref="F70:F86"/>
     <mergeCell ref="N77:N100"/>
     <mergeCell ref="O77:O100"/>
     <mergeCell ref="Q77:Q100"/>
@@ -2961,14 +2958,17 @@
     <mergeCell ref="I47:I61"/>
     <mergeCell ref="K47:K61"/>
     <mergeCell ref="L47:L61"/>
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="H29:L30"/>
+    <mergeCell ref="N29:R30"/>
+    <mergeCell ref="N32:N51"/>
+    <mergeCell ref="O32:O51"/>
+    <mergeCell ref="Q32:Q51"/>
+    <mergeCell ref="R32:R51"/>
     <mergeCell ref="B32:B45"/>
     <mergeCell ref="C32:C45"/>
     <mergeCell ref="E32:E45"/>
     <mergeCell ref="F32:F45"/>
-    <mergeCell ref="B70:B86"/>
-    <mergeCell ref="C70:C86"/>
-    <mergeCell ref="E70:E86"/>
-    <mergeCell ref="F70:F86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D32" r:id="rId1" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-1" xr:uid="{E7947726-5768-427C-8BD5-EDE58C68F8CB}"/>
@@ -3149,724 +3149,724 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="16"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="16"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="16"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="16"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="16"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="16"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="16"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="16"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="29">
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="29">
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="29">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="29">
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="29">
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29">
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29">
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29">
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="29">
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="29">
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="29">
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="29">
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="29">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="29">
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29">
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="29">
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="29">
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="29">
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="29">
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="29">
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="29">
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="27">
+      <c r="E42" s="25">
+        <v>0</v>
+      </c>
+      <c r="F42" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="16"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="27"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="32"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44" s="16"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="27"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="32"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="16"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="27"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="32"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="16"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="27"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B47" s="16"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="27"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="16"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="27"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="16"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="27"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="16"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="27"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B51" s="16"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="27"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="16"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="27"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="16"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="27"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B54" s="16"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="27"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B55" s="16"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="27"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="16"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="27"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="16"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="27"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3957,307 +3957,307 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="16"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="16"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="16"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="16"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="16"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="16"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="16"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="16"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="16"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="16"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="16"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="16"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="16"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="16"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="27"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="16"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="16"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="16"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="16"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="16"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="16"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="27"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="16"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="27"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="16"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4318,864 +4318,864 @@
   <cols>
     <col min="3" max="3" width="17.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.1328125" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="16"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="16"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="16"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="16"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="16"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="16"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="16"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="16"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="16"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="16"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="16"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="16"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="16"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="16"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19">
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19">
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19">
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19">
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="13">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="8">
         <v>5</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="13">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="8">
         <v>5</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="26">
         <v>76</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="27">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="16"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="16"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B51" s="16"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="16"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="16"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B54" s="16"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B55" s="16"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="16"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="16"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B58" s="16"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B59" s="16"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="17"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B60" s="16"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="9" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="17"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B61" s="16"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="9" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B62" s="16"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9" t="s">
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B63" s="16"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B64" s="16"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="17"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B65" s="16"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="17"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B66" s="16"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="17"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="16"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="17"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="16"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9" t="s">
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="17"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B69" s="16"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="17"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B70" s="16"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9" t="s">
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="17"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23" t="s">
+      <c r="B71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5268,113 +5268,113 @@
   <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="37">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
@@ -5440,7 +5440,7 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="17">
         <v>53</v>
       </c>
     </row>

--- a/Finale_Abgabe/Sprint_Report.xlsx
+++ b/Finale_Abgabe/Sprint_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\IdeaProjects\TM22_SoftwareEngineering_Gruppe2\Finale_Abgabe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F88C17-E821-462B-A986-9E7DBE300ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F70682-0E74-4CB5-868F-F08380189D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6495" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{267CC342-08BB-491D-946F-58BFBB1312F9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -311,6 +311,24 @@
   </si>
   <si>
     <t>22.10</t>
+  </si>
+  <si>
+    <t>5 -&gt; 18</t>
+  </si>
+  <si>
+    <t>18 -&gt; 23</t>
+  </si>
+  <si>
+    <t>23 -&gt; 28</t>
+  </si>
+  <si>
+    <t>05.11</t>
+  </si>
+  <si>
+    <t>06.11</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -358,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -563,31 +581,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,8 +627,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,46 +687,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641F24DA-7E6B-429E-893D-76D9671F0016}">
-  <dimension ref="B28:R100"/>
+  <dimension ref="B28:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1194,1759 +1194,2094 @@
     <col min="17" max="17" width="10.796875" customWidth="1"/>
     <col min="18" max="18" width="10.3984375" customWidth="1"/>
     <col min="22" max="22" width="80" customWidth="1"/>
+    <col min="23" max="23" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
+    <row r="28" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B29" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="H29" s="18" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="H29" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="N29" s="18" t="s">
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="N29" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
-    </row>
-    <row r="30" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="23"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="30"/>
+      <c r="T29" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="30"/>
+    </row>
+    <row r="30" spans="2:24" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="10" t="s">
+      <c r="N31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="10" t="s">
+      <c r="Q31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B32" s="24" t="s">
+      <c r="T31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="25">
-        <v>0</v>
-      </c>
-      <c r="F32" s="32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="24" t="s">
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="25">
-        <v>0</v>
-      </c>
-      <c r="L32" s="32">
+      <c r="K32" s="20">
+        <v>0</v>
+      </c>
+      <c r="L32" s="22">
         <v>106</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q32" s="26">
-        <v>0</v>
-      </c>
-      <c r="R32" s="27">
+      <c r="Q32" s="24">
+        <v>0</v>
+      </c>
+      <c r="R32" s="26">
         <v>144</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="6" t="s">
+      <c r="T32" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="24">
+        <v>0</v>
+      </c>
+      <c r="X32" s="26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B33" s="18"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="32"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="6" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="22"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="32"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="6" t="s">
+      <c r="K33" s="20"/>
+      <c r="L33" s="22"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="6" t="s">
+      <c r="Q33" s="24"/>
+      <c r="R33" s="26"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W33" s="24"/>
+      <c r="X33" s="26"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B34" s="18"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="32"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="6" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="22"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="32"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="6" t="s">
+      <c r="K34" s="20"/>
+      <c r="L34" s="22"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="27"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="6" t="s">
+      <c r="Q34" s="24"/>
+      <c r="R34" s="26"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="24"/>
+      <c r="X34" s="26"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B35" s="18"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="32"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="6" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="22"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="32"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="6" t="s">
+      <c r="K35" s="20"/>
+      <c r="L35" s="22"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="6" t="s">
+      <c r="Q35" s="24"/>
+      <c r="R35" s="26"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W35" s="24"/>
+      <c r="X35" s="26"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B36" s="18"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="32"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="6" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="22"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="32"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="6" t="s">
+      <c r="K36" s="20"/>
+      <c r="L36" s="22"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="27"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="6" t="s">
+      <c r="Q36" s="24"/>
+      <c r="R36" s="26"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W36" s="24"/>
+      <c r="X36" s="26"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B37" s="18"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="32"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="6" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="22"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="25"/>
-      <c r="L37" s="32"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="6" t="s">
+      <c r="K37" s="20"/>
+      <c r="L37" s="22"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="6" t="s">
+      <c r="Q37" s="24"/>
+      <c r="R37" s="26"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W37" s="24"/>
+      <c r="X37" s="26"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="32"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="6" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="22"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="32"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="6" t="s">
+      <c r="K38" s="20"/>
+      <c r="L38" s="22"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="27"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="6" t="s">
+      <c r="Q38" s="24"/>
+      <c r="R38" s="26"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W38" s="24"/>
+      <c r="X38" s="26"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="32"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="6" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="22"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="32"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="6" t="s">
+      <c r="K39" s="20"/>
+      <c r="L39" s="22"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="6" t="s">
+      <c r="Q39" s="24"/>
+      <c r="R39" s="26"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W39" s="24"/>
+      <c r="X39" s="26"/>
+    </row>
+    <row r="40" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B40" s="18"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="32"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="6" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="22"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="32"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="6" t="s">
+      <c r="K40" s="20"/>
+      <c r="L40" s="22"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="27"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="6" t="s">
+      <c r="Q40" s="24"/>
+      <c r="R40" s="26"/>
+      <c r="T40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W40" s="16">
+        <v>0</v>
+      </c>
+      <c r="X40" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B41" s="18"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="32"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="6" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="22"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="32"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="6" t="s">
+      <c r="K41" s="20"/>
+      <c r="L41" s="22"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="6" t="s">
+      <c r="Q41" s="24"/>
+      <c r="R41" s="26"/>
+      <c r="T41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W41" s="16">
+        <v>0</v>
+      </c>
+      <c r="X41" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="32"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="6" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="22"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="32"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="6" t="s">
+      <c r="K42" s="20"/>
+      <c r="L42" s="22"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="27"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="6" t="s">
+      <c r="Q42" s="24"/>
+      <c r="R42" s="26"/>
+      <c r="T42" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="16">
+        <v>0</v>
+      </c>
+      <c r="X42" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B43" s="18"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="32"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="6" t="s">
+      <c r="E43" s="20"/>
+      <c r="F43" s="22"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="32"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="6" t="s">
+      <c r="K43" s="20"/>
+      <c r="L43" s="22"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="6" t="s">
+      <c r="Q43" s="24"/>
+      <c r="R43" s="26"/>
+      <c r="T43" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="U43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X43" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="18"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="32"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="6" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="22"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="32"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="6" t="s">
+      <c r="K44" s="20"/>
+      <c r="L44" s="22"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="27"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="6" t="s">
+      <c r="Q44" s="24"/>
+      <c r="R44" s="26"/>
+      <c r="T44" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U44" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W44" s="16">
+        <v>5</v>
+      </c>
+      <c r="X44" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B45" s="18"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="32"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="6" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="22"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="32"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="6" t="s">
+      <c r="K45" s="20"/>
+      <c r="L45" s="22"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B46" s="12" t="s">
+      <c r="Q45" s="24"/>
+      <c r="R45" s="26"/>
+      <c r="T45" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W45" s="16">
+        <v>5</v>
+      </c>
+      <c r="X45" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B46" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16">
-        <v>0</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="6" t="s">
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="32"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="6" t="s">
+      <c r="K46" s="20"/>
+      <c r="L46" s="22"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="27"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B47" s="12" t="s">
+      <c r="Q46" s="24"/>
+      <c r="R46" s="26"/>
+      <c r="T46" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U46" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W46" s="16">
+        <v>5</v>
+      </c>
+      <c r="X46" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16">
-        <v>0</v>
-      </c>
-      <c r="H47" s="24" t="s">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="25">
-        <v>0</v>
-      </c>
-      <c r="L47" s="32">
+      <c r="K47" s="20">
+        <v>0</v>
+      </c>
+      <c r="L47" s="22">
         <v>106</v>
       </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="6" t="s">
+      <c r="N47" s="18"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B48" s="12" t="s">
+      <c r="Q47" s="24"/>
+      <c r="R47" s="26"/>
+      <c r="T47" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="16">
-        <v>0</v>
-      </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="6" t="s">
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="25"/>
-      <c r="L48" s="32"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="6" t="s">
+      <c r="K48" s="20"/>
+      <c r="L48" s="22"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="27"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B49" s="12" t="s">
+      <c r="Q48" s="24"/>
+      <c r="R48" s="26"/>
+      <c r="T48" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="X48" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B49" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="7">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="6" t="s">
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="32"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="6" t="s">
+      <c r="K49" s="20"/>
+      <c r="L49" s="22"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B50" s="12" t="s">
+      <c r="Q49" s="24"/>
+      <c r="R49" s="26"/>
+      <c r="T49" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="X49" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="7">
-        <v>0</v>
-      </c>
-      <c r="F50" s="16">
-        <v>0</v>
-      </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="6" t="s">
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="25"/>
-      <c r="L50" s="32"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="6" t="s">
+      <c r="K50" s="20"/>
+      <c r="L50" s="22"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="27"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B51" s="12" t="s">
+      <c r="Q50" s="24"/>
+      <c r="R50" s="26"/>
+      <c r="T50" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W50" s="24">
+        <v>28</v>
+      </c>
+      <c r="X50" s="26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="C51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
-      <c r="F51" s="16">
-        <v>0</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="6" t="s">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="25"/>
-      <c r="L51" s="32"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="6" t="s">
+      <c r="K51" s="20"/>
+      <c r="L51" s="22"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B52" s="12" t="s">
+      <c r="Q51" s="24"/>
+      <c r="R51" s="26"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W51" s="24"/>
+      <c r="X51" s="26"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
-      <c r="F52" s="16">
-        <v>0</v>
-      </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="6" t="s">
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="25"/>
-      <c r="L52" s="32"/>
-      <c r="N52" s="12" t="s">
+      <c r="K52" s="20"/>
+      <c r="L52" s="22"/>
+      <c r="N52" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="7" t="s">
+      <c r="O52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="P52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q52" s="8">
-        <v>0</v>
-      </c>
-      <c r="R52" s="13">
+      <c r="Q52" s="5">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B53" s="12" t="s">
+      <c r="T52" s="18"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W52" s="24"/>
+      <c r="X52" s="26"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B53" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="7">
-        <v>0</v>
-      </c>
-      <c r="F53" s="16">
-        <v>0</v>
-      </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="6" t="s">
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="25"/>
-      <c r="L53" s="32"/>
-      <c r="N53" s="12" t="s">
+      <c r="K53" s="20"/>
+      <c r="L53" s="22"/>
+      <c r="N53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="P53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q53" s="8">
-        <v>0</v>
-      </c>
-      <c r="R53" s="13">
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B54" s="12" t="s">
+      <c r="T53" s="18"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W53" s="24"/>
+      <c r="X53" s="26"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B54" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="16">
-        <v>0</v>
-      </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="6" t="s">
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="25"/>
-      <c r="L54" s="32"/>
-      <c r="N54" s="12" t="s">
+      <c r="K54" s="20"/>
+      <c r="L54" s="22"/>
+      <c r="N54" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54" s="6" t="s">
+      <c r="O54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q54" s="8">
-        <v>0</v>
-      </c>
-      <c r="R54" s="13">
+      <c r="Q54" s="5">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B55" s="12" t="s">
+      <c r="T54" s="18"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W54" s="24"/>
+      <c r="X54" s="26"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B55" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="C55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="7">
-        <v>0</v>
-      </c>
-      <c r="F55" s="16">
-        <v>0</v>
-      </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="6" t="s">
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="32"/>
-      <c r="N55" s="12" t="s">
+      <c r="K55" s="20"/>
+      <c r="L55" s="22"/>
+      <c r="N55" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="P55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q55" s="8">
-        <v>0</v>
-      </c>
-      <c r="R55" s="13">
+      <c r="Q55" s="5">
+        <v>0</v>
+      </c>
+      <c r="R55" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B56" s="12" t="s">
+      <c r="T55" s="18"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W55" s="24"/>
+      <c r="X55" s="26"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="16">
-        <v>0</v>
-      </c>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="6" t="s">
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="32"/>
-      <c r="N56" s="12" t="s">
+      <c r="K56" s="20"/>
+      <c r="L56" s="22"/>
+      <c r="N56" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="7" t="s">
+      <c r="O56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="6" t="s">
+      <c r="P56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q56" s="8">
-        <v>0</v>
-      </c>
-      <c r="R56" s="13">
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B57" s="12" t="s">
+      <c r="T56" s="18"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W56" s="24"/>
+      <c r="X56" s="26"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B57" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="7">
-        <v>0</v>
-      </c>
-      <c r="F57" s="16">
-        <v>0</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="6" t="s">
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="32"/>
-      <c r="N57" s="12" t="s">
+      <c r="K57" s="20"/>
+      <c r="L57" s="22"/>
+      <c r="N57" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P57" s="6" t="s">
+      <c r="O57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" s="8">
-        <v>0</v>
-      </c>
-      <c r="R57" s="13">
+      <c r="Q57" s="5">
+        <v>0</v>
+      </c>
+      <c r="R57" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B58" s="12" t="s">
+      <c r="T57" s="18"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W57" s="24"/>
+      <c r="X57" s="26"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B58" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
-      <c r="F58" s="16">
-        <v>0</v>
-      </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="6" t="s">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="25"/>
-      <c r="L58" s="32"/>
-      <c r="N58" s="12" t="s">
+      <c r="K58" s="20"/>
+      <c r="L58" s="22"/>
+      <c r="N58" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O58" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P58" s="6" t="s">
+      <c r="O58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q58" s="8">
-        <v>0</v>
-      </c>
-      <c r="R58" s="13">
+      <c r="Q58" s="5">
+        <v>0</v>
+      </c>
+      <c r="R58" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B59" s="12" t="s">
+      <c r="T58" s="18"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W58" s="24"/>
+      <c r="X58" s="26"/>
+    </row>
+    <row r="59" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="7">
-        <v>0</v>
-      </c>
-      <c r="F59" s="16">
-        <v>0</v>
-      </c>
-      <c r="H59" s="24"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="6" t="s">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="32"/>
-      <c r="N59" s="12" t="s">
+      <c r="K59" s="20"/>
+      <c r="L59" s="22"/>
+      <c r="N59" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P59" s="6" t="s">
+      <c r="O59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="8" t="s">
+      <c r="Q59" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R59" s="13">
+      <c r="R59" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B60" s="12" t="s">
+      <c r="T59" s="19"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W59" s="25"/>
+      <c r="X59" s="27"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="7">
-        <v>0</v>
-      </c>
-      <c r="F60" s="16">
-        <v>0</v>
-      </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="6" t="s">
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="25"/>
-      <c r="L60" s="32"/>
-      <c r="N60" s="12" t="s">
+      <c r="K60" s="20"/>
+      <c r="L60" s="22"/>
+      <c r="N60" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O60" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P60" s="6" t="s">
+      <c r="O60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q60" s="8" t="s">
+      <c r="Q60" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R60" s="13">
+      <c r="R60" s="10">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="12" t="s">
+    <row r="61" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="7">
-        <v>0</v>
-      </c>
-      <c r="F61" s="16">
-        <v>0</v>
-      </c>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="15" t="s">
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="33"/>
-      <c r="N61" s="12" t="s">
+      <c r="K61" s="21"/>
+      <c r="L61" s="23"/>
+      <c r="N61" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O61" s="7" t="s">
+      <c r="O61" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="P61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q61" s="8" t="s">
+      <c r="Q61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R61" s="13" t="s">
+      <c r="R61" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B62" s="12" t="s">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B62" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="7">
-        <v>0</v>
-      </c>
-      <c r="F62" s="16">
-        <v>0</v>
-      </c>
-      <c r="N62" s="12" t="s">
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O62" s="7" t="s">
+      <c r="O62" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="P62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="5">
         <v>5</v>
       </c>
-      <c r="R62" s="13">
+      <c r="R62" s="10">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B63" s="12" t="s">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B63" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="7">
-        <v>0</v>
-      </c>
-      <c r="F63" s="16">
-        <v>0</v>
-      </c>
-      <c r="N63" s="12" t="s">
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O63" s="7" t="s">
+      <c r="O63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="P63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="5">
         <v>5</v>
       </c>
-      <c r="R63" s="13" t="s">
+      <c r="R63" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B64" s="12" t="s">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B64" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="7">
-        <v>0</v>
-      </c>
-      <c r="F64" s="16">
-        <v>0</v>
-      </c>
-      <c r="N64" s="12" t="s">
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P64" s="6" t="s">
+      <c r="O64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="8" t="s">
+      <c r="Q64" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R64" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="7">
-        <v>0</v>
-      </c>
-      <c r="F65" s="16">
-        <v>0</v>
-      </c>
-      <c r="N65" s="12" t="s">
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P65" s="6" t="s">
+      <c r="O65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q65" s="8" t="s">
+      <c r="Q65" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R65" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
-      <c r="F66" s="16">
-        <v>0</v>
-      </c>
-      <c r="N66" s="12" t="s">
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O66" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P66" s="6" t="s">
+      <c r="O66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q66" s="8" t="s">
+      <c r="Q66" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R66" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="7">
-        <v>0</v>
-      </c>
-      <c r="F67" s="16">
-        <v>0</v>
-      </c>
-      <c r="N67" s="12" t="s">
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O67" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P67" s="6" t="s">
+      <c r="O67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q67" s="8" t="s">
+      <c r="Q67" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R67" s="14">
+      <c r="R67" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="C68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="7">
-        <v>0</v>
-      </c>
-      <c r="F68" s="16">
-        <v>0</v>
-      </c>
-      <c r="N68" s="12" t="s">
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P68" s="6" t="s">
+      <c r="O68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q68" s="8" t="s">
+      <c r="Q68" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R68" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="C69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="7">
-        <v>0</v>
-      </c>
-      <c r="F69" s="16">
-        <v>0</v>
-      </c>
-      <c r="N69" s="12" t="s">
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="N69" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P69" s="6" t="s">
+      <c r="O69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q69" s="8" t="s">
+      <c r="Q69" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R69" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="25">
-        <v>0</v>
-      </c>
-      <c r="F70" s="32">
-        <v>0</v>
-      </c>
-      <c r="N70" s="12" t="s">
+      <c r="E70" s="20">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22">
+        <v>0</v>
+      </c>
+      <c r="N70" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O70" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P70" s="6" t="s">
+      <c r="O70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q70" s="8" t="s">
+      <c r="Q70" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R70" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="6" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="32"/>
-      <c r="N71" s="12" t="s">
+      <c r="E71" s="20"/>
+      <c r="F71" s="22"/>
+      <c r="N71" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O71" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P71" s="6" t="s">
+      <c r="O71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q71" s="8" t="s">
+      <c r="Q71" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R71" s="14">
+      <c r="R71" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="6" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="32"/>
-      <c r="N72" s="12" t="s">
+      <c r="E72" s="20"/>
+      <c r="F72" s="22"/>
+      <c r="N72" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P72" s="6" t="s">
+      <c r="O72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="8" t="s">
+      <c r="Q72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R72" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="6" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="32"/>
-      <c r="N73" s="12" t="s">
+      <c r="E73" s="20"/>
+      <c r="F73" s="22"/>
+      <c r="N73" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O73" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P73" s="6" t="s">
+      <c r="O73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q73" s="8" t="s">
+      <c r="Q73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R73" s="14">
+      <c r="R73" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="6" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="32"/>
-      <c r="N74" s="12" t="s">
+      <c r="E74" s="20"/>
+      <c r="F74" s="22"/>
+      <c r="N74" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P74" s="6" t="s">
+      <c r="O74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q74" s="8" t="s">
+      <c r="Q74" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R74" s="14">
+      <c r="R74" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="6" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="25"/>
-      <c r="F75" s="32"/>
-      <c r="N75" s="12" t="s">
+      <c r="E75" s="20"/>
+      <c r="F75" s="22"/>
+      <c r="N75" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P75" s="6" t="s">
+      <c r="O75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q75" s="8" t="s">
+      <c r="Q75" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R75" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="6" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="25"/>
-      <c r="F76" s="32"/>
-      <c r="N76" s="12" t="s">
+      <c r="E76" s="20"/>
+      <c r="F76" s="22"/>
+      <c r="N76" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O76" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P76" s="6" t="s">
+      <c r="O76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q76" s="8" t="s">
+      <c r="Q76" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R76" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="6" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="32"/>
-      <c r="N77" s="24" t="s">
+      <c r="E77" s="20"/>
+      <c r="F77" s="22"/>
+      <c r="N77" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O77" s="25" t="s">
+      <c r="O77" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P77" s="6" t="s">
+      <c r="P77" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q77" s="26">
+      <c r="Q77" s="24">
         <v>76</v>
       </c>
-      <c r="R77" s="27">
+      <c r="R77" s="26">
         <v>144</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="6" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E78" s="25"/>
-      <c r="F78" s="32"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="6" t="s">
+      <c r="E78" s="20"/>
+      <c r="F78" s="22"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="27"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="26"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="6" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="32"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="6" t="s">
+      <c r="E79" s="20"/>
+      <c r="F79" s="22"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="27"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="26"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="6" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="32"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="6" t="s">
+      <c r="E80" s="20"/>
+      <c r="F80" s="22"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="27"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="26"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="6" t="s">
+      <c r="B81" s="18"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="32"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="6" t="s">
+      <c r="E81" s="20"/>
+      <c r="F81" s="22"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="27"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="26"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="6" t="s">
+      <c r="B82" s="18"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="32"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="6" t="s">
+      <c r="E82" s="20"/>
+      <c r="F82" s="22"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="27"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="26"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="6" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="32"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="6" t="s">
+      <c r="E83" s="20"/>
+      <c r="F83" s="22"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="27"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="26"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="6" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="32"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="6" t="s">
+      <c r="E84" s="20"/>
+      <c r="F84" s="22"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="27"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="26"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="6" t="s">
+      <c r="B85" s="18"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="32"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="6" t="s">
+      <c r="E85" s="20"/>
+      <c r="F85" s="22"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="27"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="26"/>
     </row>
     <row r="86" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="28"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="15" t="s">
+      <c r="B86" s="19"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="33"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="6" t="s">
+      <c r="E86" s="21"/>
+      <c r="F86" s="23"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="27"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="26"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N87" s="24"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="6" t="s">
+      <c r="N87" s="18"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="27"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="26"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N88" s="24"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="6" t="s">
+      <c r="N88" s="18"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="27"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="26"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N89" s="24"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="6" t="s">
+      <c r="N89" s="18"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="27"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="26"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N90" s="24"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="6" t="s">
+      <c r="N90" s="18"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="27"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="26"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N91" s="24"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="6" t="s">
+      <c r="N91" s="18"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="27"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="26"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N92" s="24"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="6" t="s">
+      <c r="N92" s="18"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="27"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="26"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N93" s="24"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="6" t="s">
+      <c r="N93" s="18"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="27"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="26"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N94" s="24"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="6" t="s">
+      <c r="N94" s="18"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="27"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="26"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N95" s="24"/>
-      <c r="O95" s="25"/>
-      <c r="P95" s="6" t="s">
+      <c r="N95" s="18"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="27"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="26"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="N96" s="24"/>
-      <c r="O96" s="25"/>
-      <c r="P96" s="6" t="s">
+      <c r="N96" s="18"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="27"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="26"/>
     </row>
     <row r="97" spans="14:18" x14ac:dyDescent="0.45">
-      <c r="N97" s="24"/>
-      <c r="O97" s="25"/>
-      <c r="P97" s="6" t="s">
+      <c r="N97" s="18"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="27"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="26"/>
     </row>
     <row r="98" spans="14:18" x14ac:dyDescent="0.45">
-      <c r="N98" s="24"/>
-      <c r="O98" s="25"/>
-      <c r="P98" s="6" t="s">
+      <c r="N98" s="18"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="27"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="26"/>
     </row>
     <row r="99" spans="14:18" x14ac:dyDescent="0.45">
-      <c r="N99" s="24"/>
-      <c r="O99" s="25"/>
-      <c r="P99" s="6" t="s">
+      <c r="N99" s="18"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="27"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="26"/>
     </row>
     <row r="100" spans="14:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N100" s="28"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="15" t="s">
+      <c r="N100" s="19"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="31"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B70:B86"/>
-    <mergeCell ref="C70:C86"/>
-    <mergeCell ref="E70:E86"/>
-    <mergeCell ref="F70:F86"/>
-    <mergeCell ref="N77:N100"/>
+  <mergeCells count="36">
+    <mergeCell ref="T29:X30"/>
+    <mergeCell ref="T32:T39"/>
+    <mergeCell ref="U32:U39"/>
+    <mergeCell ref="W32:W39"/>
+    <mergeCell ref="X32:X39"/>
+    <mergeCell ref="T50:T59"/>
+    <mergeCell ref="U50:U59"/>
+    <mergeCell ref="W50:W59"/>
+    <mergeCell ref="X50:X59"/>
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="H29:L30"/>
+    <mergeCell ref="N29:R30"/>
+    <mergeCell ref="N32:N51"/>
+    <mergeCell ref="O32:O51"/>
+    <mergeCell ref="Q32:Q51"/>
+    <mergeCell ref="R32:R51"/>
+    <mergeCell ref="B32:B45"/>
+    <mergeCell ref="C32:C45"/>
+    <mergeCell ref="E32:E45"/>
+    <mergeCell ref="F32:F45"/>
     <mergeCell ref="O77:O100"/>
     <mergeCell ref="Q77:Q100"/>
     <mergeCell ref="R77:R100"/>
@@ -2958,17 +3293,11 @@
     <mergeCell ref="I47:I61"/>
     <mergeCell ref="K47:K61"/>
     <mergeCell ref="L47:L61"/>
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="H29:L30"/>
-    <mergeCell ref="N29:R30"/>
-    <mergeCell ref="N32:N51"/>
-    <mergeCell ref="O32:O51"/>
-    <mergeCell ref="Q32:Q51"/>
-    <mergeCell ref="R32:R51"/>
-    <mergeCell ref="B32:B45"/>
-    <mergeCell ref="C32:C45"/>
-    <mergeCell ref="E32:E45"/>
-    <mergeCell ref="F32:F45"/>
+    <mergeCell ref="B70:B86"/>
+    <mergeCell ref="C70:C86"/>
+    <mergeCell ref="E70:E86"/>
+    <mergeCell ref="F70:F86"/>
+    <mergeCell ref="N77:N100"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D32" r:id="rId1" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-1" xr:uid="{E7947726-5768-427C-8BD5-EDE58C68F8CB}"/>
@@ -3125,10 +3454,38 @@
     <hyperlink ref="P98" r:id="rId152" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-63" xr:uid="{07B82E44-3D25-4A0D-B2AF-41676EFEC8B7}"/>
     <hyperlink ref="P99" r:id="rId153" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-64" xr:uid="{D69E5D53-190B-46DE-B4F0-64E99057DBEB}"/>
     <hyperlink ref="P100" r:id="rId154" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-65" xr:uid="{7E4DA8B7-FAE9-4740-BDA4-A7E67D242032}"/>
+    <hyperlink ref="V32" r:id="rId155" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-60" xr:uid="{E68B1CE3-0BAB-4931-BC80-144AA78910D6}"/>
+    <hyperlink ref="V33" r:id="rId156" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-50" xr:uid="{2F2495F1-EADF-4179-BB2D-6CE36AD9CE30}"/>
+    <hyperlink ref="V34" r:id="rId157" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-52" xr:uid="{9230186E-0571-44CA-82E8-B586EC2FF279}"/>
+    <hyperlink ref="V35" r:id="rId158" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-64" xr:uid="{82A53A49-CA97-413B-B7FA-AE5A727083F2}"/>
+    <hyperlink ref="V36" r:id="rId159" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-44" xr:uid="{DCEC394E-4A4D-4956-ADB9-99934D6086AA}"/>
+    <hyperlink ref="V37" r:id="rId160" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-54" xr:uid="{DA4963E7-7966-4C07-8AFE-60B7E454287C}"/>
+    <hyperlink ref="V38" r:id="rId161" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-38" xr:uid="{627A89EA-C00E-4C68-AE58-EAD4325AB829}"/>
+    <hyperlink ref="V39" r:id="rId162" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-66" xr:uid="{78AEFFAD-A61A-46F4-AFC7-32A8532F14E9}"/>
+    <hyperlink ref="V40" r:id="rId163" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-67" xr:uid="{4A117AF4-71F1-440D-9F28-5806E09FABC9}"/>
+    <hyperlink ref="V41" r:id="rId164" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-68" xr:uid="{BF057911-55B7-4FDE-B652-AE3E1F67530F}"/>
+    <hyperlink ref="V42" r:id="rId165" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-64" xr:uid="{C9541072-7953-4F91-9FAD-92220A64A02B}"/>
+    <hyperlink ref="V43" r:id="rId166" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-60" xr:uid="{4FE3AAB0-ABF6-49F4-BA7B-8E334ED3B05B}"/>
+    <hyperlink ref="V44" r:id="rId167" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-68" xr:uid="{9A63A250-16F3-492A-94B2-CCE2F45FE63A}"/>
+    <hyperlink ref="V45" r:id="rId168" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-67" xr:uid="{7F210D22-52EF-42FD-B09A-F763E6A4185B}"/>
+    <hyperlink ref="V46" r:id="rId169" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-66" xr:uid="{E5F862C4-08C2-4B7E-B85E-3A13583D9649}"/>
+    <hyperlink ref="V47" r:id="rId170" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-50" xr:uid="{7D616468-F78A-4283-84A1-19A1CFD7E87E}"/>
+    <hyperlink ref="V48" r:id="rId171" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-52" xr:uid="{053C058A-7FB0-4FD6-B8D4-71D008989C7B}"/>
+    <hyperlink ref="V49" r:id="rId172" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-44" xr:uid="{AC6DC978-25E3-4BDF-B553-FBDA3743D1CB}"/>
+    <hyperlink ref="V50" r:id="rId173" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-60" xr:uid="{15EB5BF7-5B8E-48D2-9539-ECB26823B9E6}"/>
+    <hyperlink ref="V51" r:id="rId174" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-50" xr:uid="{CE33DB50-7E60-428B-84FA-CB23172568AE}"/>
+    <hyperlink ref="V52" r:id="rId175" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-52" xr:uid="{5EA1A32D-DAB3-401D-924A-3E27B88BC7F2}"/>
+    <hyperlink ref="V53" r:id="rId176" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-64" xr:uid="{50988100-9929-40EF-B9EE-AF12B669F9D2}"/>
+    <hyperlink ref="V54" r:id="rId177" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-44" xr:uid="{DA47026F-EFD9-4F9C-96BC-898E7787F6F2}"/>
+    <hyperlink ref="V55" r:id="rId178" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-54" xr:uid="{4EA07DAA-3E74-48AB-BA59-01B01E9A40D9}"/>
+    <hyperlink ref="V56" r:id="rId179" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-38" xr:uid="{1EE60B05-7E7C-4ACF-B48A-8170A23285DD}"/>
+    <hyperlink ref="V57" r:id="rId180" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-66" xr:uid="{98EA768C-1E14-4358-8DE3-6692EE549F2F}"/>
+    <hyperlink ref="V58" r:id="rId181" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-67" xr:uid="{6CBE45F5-51B4-4DDE-9516-25F9F0F98995}"/>
+    <hyperlink ref="V59" r:id="rId182" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-68" xr:uid="{8F3D64C3-5DFC-4A40-AA1B-F74CF7BDCAA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId155"/>
-  <drawing r:id="rId156"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId183"/>
+  <drawing r:id="rId184"/>
 </worksheet>
 </file>
 
@@ -3149,724 +3506,724 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="25">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16">
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="16">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="16">
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="25">
-        <v>0</v>
-      </c>
-      <c r="F42" s="32">
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="32"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="6" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="32"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="6" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="32"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="32"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="32"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="6" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="32"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="32"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="32"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="32"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="32"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="32"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="32"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="6" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="32"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="6" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="32"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="6" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="15" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="33"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3957,307 +4314,307 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25">
-        <v>0</v>
-      </c>
-      <c r="F3" s="32">
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="32"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="F18" s="32">
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="32"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="6" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="15" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="33"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4318,864 +4675,864 @@
   <cols>
     <col min="3" max="3" width="17.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.1328125" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="10">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <v>5</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="10">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="5">
         <v>5</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="11">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="24">
         <v>76</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="6" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="6" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="6" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="6" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="6" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="6" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="6" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="6" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="6" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="6" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="6" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="6" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="6" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="6" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="6" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="6" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="26"/>
     </row>
     <row r="71" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="15" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="31"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5265,195 +5622,395 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F85AA-1B10-4AB8-8964-820FC0411C65}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="B2" sqref="B2:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="34">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="24">
+        <v>28</v>
+      </c>
+      <c r="F21" s="26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="18"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="F3:F10"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="E21:E30"/>
+    <mergeCell ref="F21:F30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-60" xr:uid="{A982CFC0-8F7D-43C0-9867-C851E7320245}"/>
@@ -5468,6 +6025,22 @@
     <hyperlink ref="D12" r:id="rId10" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-68" xr:uid="{2744ECB2-D873-4E60-B957-9605D6F2D5E2}"/>
     <hyperlink ref="D13" r:id="rId11" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-64" xr:uid="{1B919BD1-511C-4436-8626-BB0C973993FE}"/>
     <hyperlink ref="D14" r:id="rId12" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-60" xr:uid="{DF5E620A-DCB3-471C-9186-AD33DA67D1C7}"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-68" xr:uid="{9901E3DD-D915-4D0C-AAB6-08FDEDF8F818}"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-67" xr:uid="{27A01492-0EBB-45A2-B2EA-C8EE9C04C977}"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-66" xr:uid="{38A83870-44BB-4B5F-9366-821F7D0FABB5}"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-50" xr:uid="{033104BD-25C6-4BB7-8619-CA485BA14E96}"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-52" xr:uid="{61C5DD24-CDCE-41D7-927D-5011C24028D7}"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-44" xr:uid="{3C979CE9-DF96-4B5D-B332-4F59937C67F8}"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-60" xr:uid="{A4D647B9-69A9-42B2-BA0D-41BF0E2C67B6}"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-50" xr:uid="{03750654-BFA3-4687-9C2F-DBDEC968AC34}"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-52" xr:uid="{B16848AD-9023-4CE3-A8F3-7EE9A6AC1344}"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-64" xr:uid="{38BD532A-1903-4639-8DBC-D43478136EB6}"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-44" xr:uid="{56B04607-99F6-4D32-8C68-AD99F9E39263}"/>
+    <hyperlink ref="D26" r:id="rId24" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-54" xr:uid="{7F7AA36F-4CAB-46FF-9BE5-9AB9E9B2B82E}"/>
+    <hyperlink ref="D27" r:id="rId25" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-38" xr:uid="{D7896CB7-EA24-42AB-9EAB-8C449626EE19}"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-66" xr:uid="{BFFE602D-09AE-435B-A8A7-A20FDB5374E0}"/>
+    <hyperlink ref="D29" r:id="rId27" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-67" xr:uid="{E8C57E0B-DCF8-4511-AF8B-823A5EC3A3F9}"/>
+    <hyperlink ref="D30" r:id="rId28" display="https://tm22-schiffe-versenken.atlassian.net/browse/TSV-68" xr:uid="{B02A51DC-00A3-4E04-972C-D3BBC0F29823}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
